--- a/test/resources/test-file.xlsx
+++ b/test/resources/test-file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>First week</t>
   </si>
@@ -44,9 +44,6 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>13/06/2016</t>
-  </si>
-  <si>
     <t>Pause</t>
   </si>
   <si>
@@ -68,21 +65,12 @@
     <t>ca. 12:00</t>
   </si>
   <si>
-    <t>14/06/2016</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>15/06/2016</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>16/06/2016</t>
-  </si>
-  <si>
     <t>Meeting at 10am</t>
   </si>
   <si>
@@ -92,34 +80,26 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>17/06/2016</t>
-  </si>
-  <si>
     <t>Winter is coming...</t>
   </si>
   <si>
     <t>Second week</t>
   </si>
   <si>
-    <t>22/06/2016</t>
-  </si>
-  <si>
     <t>1/2h</t>
   </si>
   <si>
     <t>Westeros</t>
-  </si>
-  <si>
-    <t>23/06/2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="HH:MM"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -273,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,6 +291,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,7 +486,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -570,64 +554,64 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="n">
+        <v>42534</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -636,7 +620,7 @@
         <v>0.375</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.447916666666667</v>
@@ -658,64 +642,64 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
+      <c r="A8" s="10" t="n">
+        <v>42535</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -744,72 +728,72 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
+      <c r="A12" s="10" t="n">
+        <v>42536</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="20" t="n">
+      <c r="C15" s="21" t="n">
         <v>0.375</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="22" t="n">
         <v>0.75</v>
       </c>
       <c r="E15" s="6" t="n">
@@ -826,75 +810,75 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
+      <c r="A16" s="10" t="n">
+        <v>42537</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="A17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="20" t="n">
+      <c r="C19" s="21" t="n">
         <v>0.375</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="22" t="n">
         <v>0.75</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="26" t="n">
         <v>0.447916666666667</v>
       </c>
       <c r="F19" s="7" t="n">
@@ -908,67 +892,67 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
+      <c r="A20" s="10" t="n">
+        <v>42538</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="30" t="s">
-        <v>26</v>
+      <c r="C23" s="31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
@@ -986,85 +970,85 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="20" t="n">
+      <c r="C25" s="21" t="n">
         <v>0.375</v>
       </c>
-      <c r="D25" s="21" t="n">
+      <c r="D25" s="22" t="n">
         <v>0.729166666666667</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="26" t="n">
         <v>0.427083333333333</v>
       </c>
       <c r="F25" s="7" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="G25" s="31" t="n">
+      <c r="G25" s="32" t="n">
         <v>0.46875</v>
       </c>
-      <c r="H25" s="32" t="n">
+      <c r="H25" s="33" t="n">
         <v>0.885416666666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
+      <c r="A26" s="10" t="n">
+        <v>42543</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="34"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="35"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="20" t="n">
+      <c r="C29" s="21" t="n">
         <v>0.375</v>
       </c>
-      <c r="D29" s="21" t="n">
+      <c r="D29" s="22" t="n">
         <v>0.729166666666667</v>
       </c>
       <c r="E29" s="6" t="n">
@@ -1073,58 +1057,58 @@
       <c r="F29" s="7" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="G29" s="31" t="n">
+      <c r="G29" s="32" t="n">
         <v>0.46875</v>
       </c>
-      <c r="H29" s="32" t="n">
+      <c r="H29" s="33" t="n">
         <v>0.885416666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
+      <c r="A30" s="10" t="n">
+        <v>42544</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="34"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
-        <v>22</v>
+      <c r="A31" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="36"/>
+      <c r="C31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="47">
